--- a/web/files/examples/products.xlsx
+++ b/web/files/examples/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shdkhayrtdinov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shdkhayrtdinov/PhpstormProjects/lk.letitprichka.ru/web/files/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021EEF5-FEA9-3A48-BCB9-9A90DF9F966C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F648949-7393-D843-A2C7-7A2D2C14DB94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{CE5E0B5B-097E-E444-A1CA-7E0684C87889}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Название</t>
   </si>
   <si>
-    <t>Кол-во шт</t>
-  </si>
-  <si>
-    <t>Вес кг.</t>
-  </si>
-  <si>
     <t>Картофель</t>
   </si>
   <si>
@@ -46,6 +40,24 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Тип исчисления</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>Молоко</t>
   </si>
 </sst>
 </file>
@@ -398,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C067946-1A3E-D54A-BAA5-81A792FF4BF0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -413,40 +425,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
